--- a/biology/Zoologie/Apsilinae/Apsilinae.xlsx
+++ b/biology/Zoologie/Apsilinae/Apsilinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apsilinae sont une sous-famille de poissons téléostéens.
 </t>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Apsilus Valenciennes in Cuvier &amp; Valenciennes, 1830
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Apsilus Valenciennes in Cuvier &amp; Valenciennes, 1830
 Lipocheilus Anderson, Talwar &amp; Johnson, 1977
 Paracaesio Bleeker, 1875
-Parapristipomoides Kami, 1973
-Selon WRMS
-Aetiasis
+Parapristipomoides Kami, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apsilinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apsilinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon WRMS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aetiasis
 Apsilus
 Paracaescio
 Paraceasio
